--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>960882.1147440383</v>
+        <v>958446.477820331</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767341</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11295482.99966253</v>
+        <v>11295482.99966252</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801397</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>78.68315194458094</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>167.2486777701794</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>262.4033500842938</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.521520969392</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>131.1757920097858</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>118.2708408728599</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.473968088351836</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>190.114520705018</v>
+        <v>20.92365879439145</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>47.05786958631474</v>
+        <v>69.60662835550704</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>262.0622064652343</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.11749662299701</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806771</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203237984</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458119</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035025</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>136.6856111842595</v>
       </c>
       <c r="E13" t="n">
-        <v>140.2419849866807</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337162</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328419</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119296</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>89.97676987682947</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833873</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>40.53421095546933</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695496</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098625</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699844</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272894</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>239.30744908142</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>39.83255574579432</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>106.1949878935053</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.155784569984</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389243</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238311</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.9607874088629</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.29683349370565</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272886</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>172.0109307051764</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053457</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>181.4586396994902</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140705</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>926.2736972002933</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>568.0079985935429</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>568.0079985935429</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>157.0220938039353</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>145.9900476893359</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,25 +4340,25 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1668.526032492304</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1668.526032492304</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1379.423165617947</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1379.423165617947</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1090.005995580987</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>862.0164446829692</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1892.963660013483</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>952.9459563751722</v>
+        <v>651.920382101508</v>
       </c>
       <c r="C7" t="n">
-        <v>784.0097734472653</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="D7" t="n">
-        <v>633.8931340349295</v>
+        <v>332.8675597612654</v>
       </c>
       <c r="E7" t="n">
-        <v>485.9800404525364</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>339.090092954626</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>171.387256329345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4759,16 +4759,16 @@
         <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.594421205412</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.594421205412</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y7" t="n">
-        <v>1134.594421205412</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2438.686919667522</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2065.221161406442</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>504.4781294962288</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>504.4781294962288</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>504.4781294962288</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>504.4781294962288</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>357.5881819983184</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>906.9191734699987</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>686.1265943264685</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2228.165453928326</v>
+        <v>1535.258832689345</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1166.296315748933</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861742</v>
+        <v>808.030617142183</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>422.2423645439389</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738905</v>
+        <v>393.840852803538</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035375</v>
+        <v>393.840852803538</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907323</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469209</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386843</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420344</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301229</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878115</v>
+        <v>1851.484858878106</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765432</v>
+        <v>2485.180661765421</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687111</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856294</v>
+        <v>3535.048359856278</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882253</v>
+        <v>3835.937563882236</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234604</v>
+        <v>3925.553311234586</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234604</v>
+        <v>3826.588132455656</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.553311234604</v>
+        <v>3622.786021971436</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.062594867213</v>
+        <v>3369.295305604043</v>
       </c>
       <c r="V11" t="n">
-        <v>3340.999707523642</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>2988.231052253528</v>
+        <v>2685.463762990358</v>
       </c>
       <c r="X11" t="n">
-        <v>2614.765293992448</v>
+        <v>2311.998004729278</v>
       </c>
       <c r="Y11" t="n">
-        <v>2614.765293992448</v>
+        <v>1921.858672753467</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.3627498550305</v>
+        <v>88.36274985503042</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469209</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469209</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831304</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104413</v>
+        <v>900.4499396649586</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754332</v>
+        <v>1337.658805224964</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.7710251054</v>
+        <v>1878.96711257603</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333045</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>686.1124067564618</v>
+        <v>385.5135230760928</v>
       </c>
       <c r="C13" t="n">
-        <v>517.176223828555</v>
+        <v>216.577340148186</v>
       </c>
       <c r="D13" t="n">
-        <v>367.0595844162192</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="E13" t="n">
-        <v>225.4010137226024</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469209</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469209</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469209</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469209</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600406</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457716</v>
+        <v>368.4550473457699</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888935</v>
+        <v>717.5002252888908</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779224</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542997</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715853</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082526</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.90904355111</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.90904355111</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906992</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457038</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897327</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.51912769144</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544792</v>
+        <v>834.2956531176403</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564618</v>
+        <v>606.306102219623</v>
       </c>
       <c r="Y13" t="n">
-        <v>686.1124067564618</v>
+        <v>385.5135230760928</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,67 +5261,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708302</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="K15" t="n">
-        <v>197.7841868637024</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="L15" t="n">
-        <v>688.5165197074535</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="M15" t="n">
-        <v>1280.534873959581</v>
+        <v>698.3321947254767</v>
       </c>
       <c r="N15" t="n">
-        <v>1902.630837358917</v>
+        <v>1320.428158124813</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>964.7673076102594</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>795.8311246823525</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>645.7144852700167</v>
+        <v>175.0061676818309</v>
       </c>
       <c r="E16" t="n">
-        <v>497.8013916876237</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>350.9114441897132</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>183.697249364292</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693318</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
         <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410167</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.375774410167</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2139.299560724894</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1884.615072519007</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1595.197902482047</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1367.208351584029</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1146.415772440499</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5492,34 +5492,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,16 +5601,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C19" t="n">
-        <v>513.853600740071</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277351</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277351</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>216.8470138298249</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>216.8470138298249</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121675</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1259.022373354577</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1031.03282245656</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257311</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133953</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310021</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.868625753638</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622258</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343189</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>597.257077721983</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6455,13 +6455,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,7 +6470,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>718.550723916711</v>
+        <v>513.8536007400737</v>
       </c>
       <c r="C31" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121668</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121668</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993911</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956951</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058933</v>
+        <v>916.2946447138436</v>
       </c>
       <c r="Y31" t="n">
-        <v>900.1991887469508</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>719.5738700011933</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>550.6376870732864</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>550.6376870732864</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,7 +6859,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797742</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>901.222334831433</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258105</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052218</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015257</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.41557511724</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,13 +7348,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188011</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908942</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908942</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908942</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908943</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,16 +7567,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7585,7 +7585,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.101820392571</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490408</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,7 +7664,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>551.354624631591</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C46" t="n">
-        <v>382.4184417036842</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D46" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y46" t="n">
-        <v>733.0030894618308</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>103.2106853057733</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.7585491187144</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114077</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.92986183395286</v>
       </c>
       <c r="E13" t="n">
-        <v>6.191977659888494</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034023</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146318</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729133</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.29152613729298</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537621</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>50.47721991512435</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823044</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>99.76050189075457</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844822794</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>47.21554925517103</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856263</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>177.572894581494</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>40.2389747530639</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272854</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294725</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.62386594323192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.2878198583891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.57372264691836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823009</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.1260136526046</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>996229.1152073621</v>
+        <v>996229.115207362</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>996229.1152073621</v>
+        <v>996229.115207362</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895446.2781618689</v>
+        <v>895446.2781618669</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>974194.7173358587</v>
+        <v>974194.717335859</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>979554.9109982292</v>
+        <v>979554.9109982293</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>979554.9109982293</v>
+        <v>979554.9109982292</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>979554.9109982293</v>
+        <v>979554.9109982292</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>979554.9109982293</v>
+        <v>979554.9109982292</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>979554.9109982293</v>
+        <v>979554.9109982292</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>979554.9109982292</v>
+        <v>979554.9109982293</v>
       </c>
     </row>
     <row r="16">
@@ -26314,25 +26314,25 @@
         <v>451572.9734253558</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795048</v>
+        <v>405380.8397795038</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.874400917</v>
+        <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295035</v>
@@ -26341,10 +26341,10 @@
         <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295036</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="N2" t="n">
         <v>443930.6298295034</v>
@@ -26353,7 +26353,7 @@
         <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185192</v>
+        <v>143114.1392185145</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051345</v>
+        <v>166521.3471051392</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557928</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115421</v>
+        <v>37377.32855115301</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.4065584882</v>
+        <v>43782.40655848942</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224748</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11677.85525949978</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214736</v>
+        <v>86093.72216214699</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1076069.723851787</v>
       </c>
       <c r="C6" t="n">
-        <v>252675.0218758053</v>
+        <v>252675.0218758054</v>
       </c>
       <c r="D6" t="n">
-        <v>252675.0218758053</v>
+        <v>252675.0218758055</v>
       </c>
       <c r="E6" t="n">
-        <v>164495.1231393385</v>
+        <v>164285.1588954977</v>
       </c>
       <c r="F6" t="n">
-        <v>163039.9551863637</v>
+        <v>162994.0501907934</v>
       </c>
       <c r="G6" t="n">
-        <v>319863.8875532112</v>
+        <v>319829.1496277756</v>
       </c>
       <c r="H6" t="n">
-        <v>331031.1237887905</v>
+        <v>330996.3858633546</v>
       </c>
       <c r="I6" t="n">
-        <v>331031.1237887906</v>
+        <v>330996.3858633547</v>
       </c>
       <c r="J6" t="n">
-        <v>113499.9213915131</v>
+        <v>113465.1834660776</v>
       </c>
       <c r="K6" t="n">
-        <v>331031.1237887904</v>
+        <v>330996.3858633548</v>
       </c>
       <c r="L6" t="n">
-        <v>331031.1237887907</v>
+        <v>330996.3858633548</v>
       </c>
       <c r="M6" t="n">
-        <v>293653.7952376364</v>
+        <v>293619.0573122017</v>
       </c>
       <c r="N6" t="n">
-        <v>287248.7172303023</v>
+        <v>287213.9793048654</v>
       </c>
       <c r="O6" t="n">
-        <v>328007.8258115657</v>
+        <v>327973.08788613</v>
       </c>
       <c r="P6" t="n">
-        <v>331031.1237887904</v>
+        <v>330996.3858633545</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494559</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="E4" t="n">
-        <v>981.3883278086511</v>
+        <v>981.3883278086465</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012606</v>
+        <v>122.3935669012565</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218267</v>
+        <v>145.8707812218308</v>
       </c>
       <c r="G3" t="n">
         <v>9.934451625288375</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063587</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="F4" t="n">
-        <v>178.756962517355</v>
+        <v>178.75696251736</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063587</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517355</v>
+        <v>178.75696251736</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063587</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517355</v>
+        <v>178.75696251736</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.244477142669</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>215.9246124427395</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>22.52034756126253</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>24.11964825229717</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161551</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>218.0651767076272</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>28.16312177370929</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>137.281046825969</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>159.126448012395</v>
+        <v>328.3173099230216</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>118.9679386727135</v>
+        <v>96.41917990352118</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-3.25134420835624e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.427743850902996e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-1.838888887011943e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.893003170356678e-12</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-1.838888887011943e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2.893003170356678e-12</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.426295589983239e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29724,10 +29724,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="V31" t="n">
-        <v>-8.432830145133905e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>4.970228583809344e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485659</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543509002</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380261</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307188</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726069</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216989</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857444</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898406</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294425</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615152</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895598</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356988</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951046</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475348</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188527</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969428</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191527</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596497</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202563</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256427</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845343</v>
+        <v>583.7591506492961</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147154</v>
+        <v>678.1177801147132</v>
       </c>
       <c r="O12" t="n">
-        <v>508.1016396238834</v>
+        <v>620.3452877431803</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205481</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697596</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780659</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190414</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236089</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737179</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691805</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836915</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619747</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509182</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263717</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973101</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050066</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761901</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916784</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857063</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292962</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826924</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765141</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -31999,25 +31999,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
         <v>342.9428985987162</v>
@@ -32029,7 +32029,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
         <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>139.4267020936829</v>
       </c>
       <c r="K15" t="n">
-        <v>243.8743315376135</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
         <v>11.77395965821092</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
         <v>364.0885788640618</v>
@@ -32166,13 +32166,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>526.2989357561996</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040326</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276264</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517117</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584717</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932496</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077558</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062457</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151103</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156666</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458973</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457685</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625159</v>
+        <v>441.6251167272777</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313821</v>
+        <v>546.77606803138</v>
       </c>
       <c r="O12" t="n">
-        <v>365.5053951794389</v>
+        <v>477.7490432987358</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062178</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701872</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360918</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112343</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882122</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765387</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190463</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410836</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998397</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12.58907542701622</v>
       </c>
       <c r="K15" t="n">
-        <v>106.0328925632545</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
         <v>370.7297545606359</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>394.9572236728663</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060454</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
